--- a/data_enexis_total_elk_db.xlsx
+++ b/data_enexis_total_elk_db.xlsx
@@ -26,7 +26,7 @@
     <t>SJV_GEMIDDELD</t>
   </si>
   <si>
-    <t>2009</t>
+    <t>2010</t>
   </si>
   <si>
     <t>5211</t>
@@ -119,9 +119,6 @@
     <t>5392</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>

--- a/data_enexis_total_elk_db.xlsx
+++ b/data_enexis_total_elk_db.xlsx
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>12320947</v>
+        <v>12150385</v>
       </c>
       <c r="D4" t="n">
-        <v>3592</v>
+        <v>3561</v>
       </c>
       <c r="E4" t="n">
-        <v>3430.107739420936</v>
+        <v>3412.071047458579</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,13 +588,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>9805015</v>
+        <v>9595765</v>
       </c>
       <c r="D5" t="n">
-        <v>2446</v>
+        <v>2416</v>
       </c>
       <c r="E5" t="n">
-        <v>4008.591578086672</v>
+        <v>3971.757036423841</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -622,13 +622,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>13765026</v>
+        <v>13109434</v>
       </c>
       <c r="D7" t="n">
-        <v>2210</v>
+        <v>2164</v>
       </c>
       <c r="E7" t="n">
-        <v>6228.518552036199</v>
+        <v>6057.963955637708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>3800559</v>
+        <v>3646769</v>
       </c>
       <c r="D8" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E8" t="n">
-        <v>15640.16049382716</v>
+        <v>15855.51739130435</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -690,13 +690,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>18426157</v>
+        <v>17469466</v>
       </c>
       <c r="D11" t="n">
-        <v>4404</v>
+        <v>4377</v>
       </c>
       <c r="E11" t="n">
-        <v>4183.959355131698</v>
+        <v>3991.196253141421</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -707,13 +707,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3363316</v>
+        <v>3053860</v>
       </c>
       <c r="D12" t="n">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="E12" t="n">
-        <v>10191.86666666667</v>
+        <v>10829.29078014184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -724,13 +724,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>14843258</v>
+        <v>13890518</v>
       </c>
       <c r="D13" t="n">
-        <v>3636</v>
+        <v>3591</v>
       </c>
       <c r="E13" t="n">
-        <v>4082.304180418042</v>
+        <v>3868.147591200223</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -809,13 +809,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>15802538</v>
+        <v>15632586</v>
       </c>
       <c r="D18" t="n">
-        <v>2858</v>
+        <v>2826</v>
       </c>
       <c r="E18" t="n">
-        <v>5529.229531140658</v>
+        <v>5531.700636942675</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -860,13 +860,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>5050910</v>
+        <v>4918151</v>
       </c>
       <c r="D21" t="n">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="E21" t="n">
-        <v>4294.991496598639</v>
+        <v>4280.375108790252</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -911,13 +911,13 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>11704806</v>
+        <v>11540304</v>
       </c>
       <c r="D24" t="n">
-        <v>2605</v>
+        <v>2568</v>
       </c>
       <c r="E24" t="n">
-        <v>4493.207677543186</v>
+        <v>4493.887850467289</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -928,13 +928,13 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>3274089</v>
+        <v>2912145</v>
       </c>
       <c r="D25" t="n">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="E25" t="n">
-        <v>6445.057086614173</v>
+        <v>6169.798728813559</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -945,13 +945,13 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>2648928</v>
+        <v>2202560</v>
       </c>
       <c r="D26" t="n">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="E26" t="n">
-        <v>9360.169611307421</v>
+        <v>10538.56459330143</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -962,13 +962,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>1826652</v>
+        <v>1692336</v>
       </c>
       <c r="D27" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E27" t="n">
-        <v>9272.345177664974</v>
+        <v>9247.737704918032</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1013,13 +1013,13 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>9318743</v>
+        <v>8841653</v>
       </c>
       <c r="D30" t="n">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="E30" t="n">
-        <v>7054.309613928842</v>
+        <v>6848.68551510457</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>12687305</v>
+        <v>12519975</v>
       </c>
       <c r="D34" t="n">
-        <v>3702</v>
+        <v>3673</v>
       </c>
       <c r="E34" t="n">
-        <v>3427.148838465694</v>
+        <v>3408.650966512388</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1098,13 +1098,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>10184686</v>
+        <v>9971592</v>
       </c>
       <c r="D35" t="n">
-        <v>2455</v>
+        <v>2424</v>
       </c>
       <c r="E35" t="n">
-        <v>4148.548268839104</v>
+        <v>4113.693069306931</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1132,13 +1132,13 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>13973483</v>
+        <v>13179569</v>
       </c>
       <c r="D37" t="n">
-        <v>2275</v>
+        <v>2229</v>
       </c>
       <c r="E37" t="n">
-        <v>6142.190329670329</v>
+        <v>5912.772095109915</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1149,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>3568858</v>
+        <v>3461674</v>
       </c>
       <c r="D38" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E38" t="n">
-        <v>14162.13492063492</v>
+        <v>14544.8487394958</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1200,13 +1200,13 @@
         <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>18426689</v>
+        <v>17460689</v>
       </c>
       <c r="D41" t="n">
-        <v>4447</v>
+        <v>4419</v>
       </c>
       <c r="E41" t="n">
-        <v>4143.622442095795</v>
+        <v>3951.276080561213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1217,13 +1217,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>3366722</v>
+        <v>3055327</v>
       </c>
       <c r="D42" t="n">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="E42" t="n">
-        <v>10140.72891566265</v>
+        <v>10796.20848056537</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1234,13 +1234,13 @@
         <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>15018759</v>
+        <v>14012207</v>
       </c>
       <c r="D43" t="n">
-        <v>3671</v>
+        <v>3624</v>
       </c>
       <c r="E43" t="n">
-        <v>4091.190138926723</v>
+        <v>3866.503035320088</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1319,13 +1319,13 @@
         <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>15813631</v>
+        <v>15644223</v>
       </c>
       <c r="D48" t="n">
-        <v>2872</v>
+        <v>2840</v>
       </c>
       <c r="E48" t="n">
-        <v>5506.138927576601</v>
+        <v>5508.529225352113</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1370,13 +1370,13 @@
         <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>5118411</v>
+        <v>4981791</v>
       </c>
       <c r="D51" t="n">
-        <v>1185</v>
+        <v>1158</v>
       </c>
       <c r="E51" t="n">
-        <v>4319.33417721519</v>
+        <v>4302.064766839379</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1421,13 +1421,13 @@
         <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>11938698</v>
+        <v>11788636</v>
       </c>
       <c r="D54" t="n">
-        <v>2703</v>
+        <v>2665</v>
       </c>
       <c r="E54" t="n">
-        <v>4416.832408435072</v>
+        <v>4423.503189493434</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1438,13 +1438,13 @@
         <v>29</v>
       </c>
       <c r="C55" t="n">
-        <v>3154139</v>
+        <v>2936194</v>
       </c>
       <c r="D55" t="n">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="E55" t="n">
-        <v>6184.586274509804</v>
+        <v>6181.461052631579</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1455,13 +1455,13 @@
         <v>30</v>
       </c>
       <c r="C56" t="n">
-        <v>3135686</v>
+        <v>2668894</v>
       </c>
       <c r="D56" t="n">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="E56" t="n">
-        <v>10115.11612903226</v>
+        <v>11308.87288135593</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1472,13 +1472,13 @@
         <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>1813649</v>
+        <v>1677884</v>
       </c>
       <c r="D57" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E57" t="n">
-        <v>9159.843434343435</v>
+        <v>9168.765027322404</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1523,13 +1523,13 @@
         <v>34</v>
       </c>
       <c r="C60" t="n">
-        <v>9311399</v>
+        <v>8835659</v>
       </c>
       <c r="D60" t="n">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="E60" t="n">
-        <v>7032.778700906344</v>
+        <v>6828.17542503864</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1591,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>13096182</v>
+        <v>12887149</v>
       </c>
       <c r="D64" t="n">
-        <v>3822</v>
+        <v>3791</v>
       </c>
       <c r="E64" t="n">
-        <v>3426.52590266876</v>
+        <v>3399.406225270377</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1608,13 +1608,13 @@
         <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>10496266</v>
+        <v>10288039</v>
       </c>
       <c r="D65" t="n">
-        <v>2502</v>
+        <v>2471</v>
       </c>
       <c r="E65" t="n">
-        <v>4195.150279776179</v>
+        <v>4163.512343180899</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1642,13 +1642,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="n">
-        <v>14396357</v>
+        <v>13520917</v>
       </c>
       <c r="D67" t="n">
-        <v>2355</v>
+        <v>2315</v>
       </c>
       <c r="E67" t="n">
-        <v>6113.102760084926</v>
+        <v>5840.568898488121</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1659,13 +1659,13 @@
         <v>12</v>
       </c>
       <c r="C68" t="n">
-        <v>4281852</v>
+        <v>4174797</v>
       </c>
       <c r="D68" t="n">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E68" t="n">
-        <v>15237.90747330961</v>
+        <v>15694.72556390977</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1710,13 +1710,13 @@
         <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>18401146</v>
+        <v>17402746</v>
       </c>
       <c r="D71" t="n">
-        <v>4523</v>
+        <v>4498</v>
       </c>
       <c r="E71" t="n">
-        <v>4068.349767853195</v>
+        <v>3868.996442863495</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1727,13 +1727,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="n">
-        <v>3407142</v>
+        <v>3098736</v>
       </c>
       <c r="D72" t="n">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="E72" t="n">
-        <v>10262.47590361446</v>
+        <v>10949.59717314488</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1744,13 +1744,13 @@
         <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>15635043</v>
+        <v>14589363</v>
       </c>
       <c r="D73" t="n">
-        <v>3764</v>
+        <v>3716</v>
       </c>
       <c r="E73" t="n">
-        <v>4153.837141339001</v>
+        <v>3926.093379978472</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1829,13 +1829,13 @@
         <v>22</v>
       </c>
       <c r="C78" t="n">
-        <v>16551549</v>
+        <v>16369181</v>
       </c>
       <c r="D78" t="n">
-        <v>2951</v>
+        <v>2919</v>
       </c>
       <c r="E78" t="n">
-        <v>5608.793290410031</v>
+        <v>5607.804385063378</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1880,13 +1880,13 @@
         <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>5287436</v>
+        <v>5110262</v>
       </c>
       <c r="D81" t="n">
-        <v>1214</v>
+        <v>1187</v>
       </c>
       <c r="E81" t="n">
-        <v>4355.383855024712</v>
+        <v>4305.191238416175</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1931,13 +1931,13 @@
         <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>12815039</v>
+        <v>12658707</v>
       </c>
       <c r="D84" t="n">
-        <v>2845</v>
+        <v>2807</v>
       </c>
       <c r="E84" t="n">
-        <v>4504.407381370826</v>
+        <v>4509.692554328464</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1948,13 +1948,13 @@
         <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>3448914</v>
+        <v>3035217</v>
       </c>
       <c r="D85" t="n">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="E85" t="n">
-        <v>6683.941860465116</v>
+        <v>6336.56993736952</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1965,13 +1965,13 @@
         <v>30</v>
       </c>
       <c r="C86" t="n">
-        <v>3301320</v>
+        <v>2742102</v>
       </c>
       <c r="D86" t="n">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="E86" t="n">
-        <v>10649.41935483871</v>
+        <v>11619.07627118644</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1982,13 +1982,13 @@
         <v>31</v>
       </c>
       <c r="C87" t="n">
-        <v>1708486</v>
+        <v>1550041</v>
       </c>
       <c r="D87" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E87" t="n">
-        <v>8628.717171717171</v>
+        <v>8470.169398907105</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="C90" t="n">
-        <v>8864350</v>
+        <v>8451368</v>
       </c>
       <c r="D90" t="n">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="E90" t="n">
-        <v>6654.917417417418</v>
+        <v>6496.055342044581</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2101,13 +2101,13 @@
         <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>12896029</v>
+        <v>12728029</v>
       </c>
       <c r="D94" t="n">
-        <v>3823</v>
+        <v>3793</v>
       </c>
       <c r="E94" t="n">
-        <v>3373.274653413549</v>
+        <v>3355.662799894543</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2118,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>10617390</v>
+        <v>10412418</v>
       </c>
       <c r="D95" t="n">
-        <v>2536</v>
+        <v>2505</v>
       </c>
       <c r="E95" t="n">
-        <v>4186.667981072555</v>
+        <v>4156.653892215569</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2152,13 +2152,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>13902548</v>
+        <v>13082468</v>
       </c>
       <c r="D97" t="n">
-        <v>2350</v>
+        <v>2310</v>
       </c>
       <c r="E97" t="n">
-        <v>5915.977872340425</v>
+        <v>5663.40606060606</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2169,13 +2169,13 @@
         <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>4412365</v>
+        <v>4306030</v>
       </c>
       <c r="D98" t="n">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E98" t="n">
-        <v>15110.83904109589</v>
+        <v>15545.23465703971</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2220,13 +2220,13 @@
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>18151080</v>
+        <v>17093996</v>
       </c>
       <c r="D101" t="n">
-        <v>4518</v>
+        <v>4490</v>
       </c>
       <c r="E101" t="n">
-        <v>4017.503320053121</v>
+        <v>3807.126057906459</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2237,13 +2237,13 @@
         <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>3389435</v>
+        <v>3081617</v>
       </c>
       <c r="D102" t="n">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="E102" t="n">
-        <v>10117.71641791045</v>
+        <v>10774.88461538462</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2254,13 +2254,13 @@
         <v>17</v>
       </c>
       <c r="C103" t="n">
-        <v>14982976</v>
+        <v>13978035</v>
       </c>
       <c r="D103" t="n">
-        <v>3766</v>
+        <v>3717</v>
       </c>
       <c r="E103" t="n">
-        <v>3978.485395645247</v>
+        <v>3760.569007263923</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2339,13 +2339,13 @@
         <v>22</v>
       </c>
       <c r="C108" t="n">
-        <v>16083340</v>
+        <v>15889868</v>
       </c>
       <c r="D108" t="n">
-        <v>2969</v>
+        <v>2937</v>
       </c>
       <c r="E108" t="n">
-        <v>5417.089929269114</v>
+        <v>5410.237657473613</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2390,13 +2390,13 @@
         <v>25</v>
       </c>
       <c r="C111" t="n">
-        <v>5197581</v>
+        <v>5027805</v>
       </c>
       <c r="D111" t="n">
-        <v>1215</v>
+        <v>1188</v>
       </c>
       <c r="E111" t="n">
-        <v>4277.844444444445</v>
+        <v>4232.159090909091</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2441,13 +2441,13 @@
         <v>28</v>
       </c>
       <c r="C114" t="n">
-        <v>12849692</v>
+        <v>12701720</v>
       </c>
       <c r="D114" t="n">
-        <v>2910</v>
+        <v>2872</v>
       </c>
       <c r="E114" t="n">
-        <v>4415.701718213058</v>
+        <v>4422.604456824512</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2458,13 +2458,13 @@
         <v>29</v>
       </c>
       <c r="C115" t="n">
-        <v>3400939</v>
+        <v>3017360</v>
       </c>
       <c r="D115" t="n">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="E115" t="n">
-        <v>6540.267307692307</v>
+        <v>6247.122153209109</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2475,13 +2475,13 @@
         <v>30</v>
       </c>
       <c r="C116" t="n">
-        <v>3306817</v>
+        <v>2770413</v>
       </c>
       <c r="D116" t="n">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="E116" t="n">
-        <v>10531.26433121019</v>
+        <v>11495.48962655602</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2492,13 +2492,13 @@
         <v>31</v>
       </c>
       <c r="C117" t="n">
-        <v>1650797</v>
+        <v>1411327</v>
       </c>
       <c r="D117" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E117" t="n">
-        <v>7503.622727272727</v>
+        <v>7628.794594594595</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2543,13 +2543,13 @@
         <v>34</v>
       </c>
       <c r="C120" t="n">
-        <v>8587197</v>
+        <v>8276763</v>
       </c>
       <c r="D120" t="n">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="E120" t="n">
-        <v>6446.844594594595</v>
+        <v>6361.847040737894</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2611,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>12760553</v>
+        <v>12591413</v>
       </c>
       <c r="D124" t="n">
-        <v>3830</v>
+        <v>3800</v>
       </c>
       <c r="E124" t="n">
-        <v>3331.737075718016</v>
+        <v>3313.529736842105</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2628,13 +2628,13 @@
         <v>9</v>
       </c>
       <c r="C125" t="n">
-        <v>10694911</v>
+        <v>10497286</v>
       </c>
       <c r="D125" t="n">
-        <v>2603</v>
+        <v>2572</v>
       </c>
       <c r="E125" t="n">
-        <v>4108.68651555897</v>
+        <v>4081.370917573872</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2662,13 +2662,13 @@
         <v>11</v>
       </c>
       <c r="C127" t="n">
-        <v>13689079</v>
+        <v>12876279</v>
       </c>
       <c r="D127" t="n">
-        <v>2356</v>
+        <v>2316</v>
       </c>
       <c r="E127" t="n">
-        <v>5810.305178268251</v>
+        <v>5559.705958549222</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2679,13 +2679,13 @@
         <v>12</v>
       </c>
       <c r="C128" t="n">
-        <v>4219806</v>
+        <v>4100078</v>
       </c>
       <c r="D128" t="n">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E128" t="n">
-        <v>14451.3904109589</v>
+        <v>14855.35507246377</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2730,13 +2730,13 @@
         <v>15</v>
       </c>
       <c r="C131" t="n">
-        <v>17756723</v>
+        <v>16818247</v>
       </c>
       <c r="D131" t="n">
-        <v>4500</v>
+        <v>4472</v>
       </c>
       <c r="E131" t="n">
-        <v>3945.938444444444</v>
+        <v>3760.788685152057</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2747,13 +2747,13 @@
         <v>16</v>
       </c>
       <c r="C132" t="n">
-        <v>3520802</v>
+        <v>3231758</v>
       </c>
       <c r="D132" t="n">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="E132" t="n">
-        <v>9541.468834688347</v>
+        <v>9883.051987767583</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2764,13 +2764,13 @@
         <v>17</v>
       </c>
       <c r="C133" t="n">
-        <v>14709984</v>
+        <v>13675447</v>
       </c>
       <c r="D133" t="n">
-        <v>3756</v>
+        <v>3707</v>
       </c>
       <c r="E133" t="n">
-        <v>3916.396166134185</v>
+        <v>3689.087402212031</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2849,13 +2849,13 @@
         <v>22</v>
       </c>
       <c r="C138" t="n">
-        <v>16228498</v>
+        <v>16033330</v>
       </c>
       <c r="D138" t="n">
-        <v>2974</v>
+        <v>2942</v>
       </c>
       <c r="E138" t="n">
-        <v>5456.791526563551</v>
+        <v>5449.806254248811</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2900,13 +2900,13 @@
         <v>25</v>
       </c>
       <c r="C141" t="n">
-        <v>5139347</v>
+        <v>4972595</v>
       </c>
       <c r="D141" t="n">
-        <v>1213</v>
+        <v>1186</v>
       </c>
       <c r="E141" t="n">
-        <v>4236.889530090684</v>
+        <v>4192.744519392917</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2951,13 +2951,13 @@
         <v>28</v>
       </c>
       <c r="C144" t="n">
-        <v>12778450</v>
+        <v>12630326</v>
       </c>
       <c r="D144" t="n">
-        <v>2909</v>
+        <v>2871</v>
       </c>
       <c r="E144" t="n">
-        <v>4392.729460295634</v>
+        <v>4399.277603622431</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2968,13 +2968,13 @@
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>3327669</v>
+        <v>2957404</v>
       </c>
       <c r="D145" t="n">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="E145" t="n">
-        <v>6448.970930232558</v>
+        <v>6148.449064449064</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2985,13 +2985,13 @@
         <v>30</v>
       </c>
       <c r="C146" t="n">
-        <v>3419207</v>
+        <v>2869847</v>
       </c>
       <c r="D146" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="E146" t="n">
-        <v>11029.7</v>
+        <v>11957.69583333333</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3002,13 +3002,13 @@
         <v>31</v>
       </c>
       <c r="C147" t="n">
-        <v>1626777</v>
+        <v>1388812</v>
       </c>
       <c r="D147" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E147" t="n">
-        <v>7394.440909090909</v>
+        <v>7507.091891891891</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3053,13 +3053,13 @@
         <v>34</v>
       </c>
       <c r="C150" t="n">
-        <v>8580563</v>
+        <v>8214329</v>
       </c>
       <c r="D150" t="n">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="E150" t="n">
-        <v>6417.773373223635</v>
+        <v>6289.685298621745</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3121,13 +3121,13 @@
         <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>12379798</v>
+        <v>12218761</v>
       </c>
       <c r="D154" t="n">
-        <v>3817</v>
+        <v>3788</v>
       </c>
       <c r="E154" t="n">
-        <v>3243.331936075452</v>
+        <v>3225.649683210137</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3138,13 +3138,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>10531354</v>
+        <v>10339526</v>
       </c>
       <c r="D155" t="n">
-        <v>2603</v>
+        <v>2572</v>
       </c>
       <c r="E155" t="n">
-        <v>4045.852477910104</v>
+        <v>4020.033437013997</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3172,13 +3172,13 @@
         <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>13548500</v>
+        <v>12821820</v>
       </c>
       <c r="D157" t="n">
-        <v>2360</v>
+        <v>2320</v>
       </c>
       <c r="E157" t="n">
-        <v>5740.889830508475</v>
+        <v>5526.646551724138</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3189,13 +3189,13 @@
         <v>12</v>
       </c>
       <c r="C158" t="n">
-        <v>4389643</v>
+        <v>4139723</v>
       </c>
       <c r="D158" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E158" t="n">
-        <v>14632.14333333333</v>
+        <v>14576.48943661972</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3240,13 +3240,13 @@
         <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>17308320</v>
+        <v>16341025</v>
       </c>
       <c r="D161" t="n">
-        <v>4519</v>
+        <v>4490</v>
       </c>
       <c r="E161" t="n">
-        <v>3830.121708342554</v>
+        <v>3639.426503340757</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3257,13 +3257,13 @@
         <v>16</v>
       </c>
       <c r="C162" t="n">
-        <v>3542035</v>
+        <v>3264793</v>
       </c>
       <c r="D162" t="n">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="E162" t="n">
-        <v>9152.545219638243</v>
+        <v>9463.16811594203</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3274,13 +3274,13 @@
         <v>17</v>
       </c>
       <c r="C163" t="n">
-        <v>14466060</v>
+        <v>13417760</v>
       </c>
       <c r="D163" t="n">
-        <v>3757</v>
+        <v>3707</v>
       </c>
       <c r="E163" t="n">
-        <v>3850.428533404312</v>
+        <v>3619.573779336391</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3359,13 +3359,13 @@
         <v>22</v>
       </c>
       <c r="C168" t="n">
-        <v>15741321</v>
+        <v>15554329</v>
       </c>
       <c r="D168" t="n">
-        <v>2977</v>
+        <v>2946</v>
       </c>
       <c r="E168" t="n">
-        <v>5287.645616392341</v>
+        <v>5279.812966734556</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3410,13 +3410,13 @@
         <v>25</v>
       </c>
       <c r="C171" t="n">
-        <v>5000981</v>
+        <v>4828262</v>
       </c>
       <c r="D171" t="n">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="E171" t="n">
-        <v>4112.648848684211</v>
+        <v>4060.775441547519</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3461,13 +3461,13 @@
         <v>28</v>
       </c>
       <c r="C174" t="n">
-        <v>12592452</v>
+        <v>12445202</v>
       </c>
       <c r="D174" t="n">
-        <v>2915</v>
+        <v>2877</v>
       </c>
       <c r="E174" t="n">
-        <v>4319.880617495712</v>
+        <v>4325.756690997567</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3478,13 +3478,13 @@
         <v>29</v>
       </c>
       <c r="C175" t="n">
-        <v>3259393</v>
+        <v>2855686</v>
       </c>
       <c r="D175" t="n">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="E175" t="n">
-        <v>6304.435203094778</v>
+        <v>5949.345833333334</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3495,13 +3495,13 @@
         <v>30</v>
       </c>
       <c r="C176" t="n">
-        <v>3429494</v>
+        <v>2879774</v>
       </c>
       <c r="D176" t="n">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="E176" t="n">
-        <v>10991.96794871795</v>
+        <v>11999.05833333333</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3512,13 +3512,13 @@
         <v>31</v>
       </c>
       <c r="C177" t="n">
-        <v>1543808</v>
+        <v>1319283</v>
       </c>
       <c r="D177" t="n">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="E177" t="n">
-        <v>7081.688073394495</v>
+        <v>7209.196721311476</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3563,13 +3563,13 @@
         <v>34</v>
       </c>
       <c r="C180" t="n">
-        <v>8361050</v>
+        <v>8007354</v>
       </c>
       <c r="D180" t="n">
-        <v>1340</v>
+        <v>1308</v>
       </c>
       <c r="E180" t="n">
-        <v>6239.589552238806</v>
+        <v>6121.830275229358</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3648,13 +3648,13 @@
         <v>9</v>
       </c>
       <c r="C185" t="n">
-        <v>10731951</v>
+        <v>10557328</v>
       </c>
       <c r="D185" t="n">
-        <v>2674</v>
+        <v>2643</v>
       </c>
       <c r="E185" t="n">
-        <v>4013.444652206432</v>
+        <v>3994.448732500946</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3682,13 +3682,13 @@
         <v>11</v>
       </c>
       <c r="C187" t="n">
-        <v>13280039</v>
+        <v>12584146</v>
       </c>
       <c r="D187" t="n">
-        <v>2358</v>
+        <v>2317</v>
       </c>
       <c r="E187" t="n">
-        <v>5631.907972858355</v>
+        <v>5431.223996547259</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3699,13 +3699,13 @@
         <v>12</v>
       </c>
       <c r="C188" t="n">
-        <v>4388104</v>
+        <v>4135671</v>
       </c>
       <c r="D188" t="n">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E188" t="n">
-        <v>14530.14569536424</v>
+        <v>14511.12631578947</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3750,13 +3750,13 @@
         <v>15</v>
       </c>
       <c r="C191" t="n">
-        <v>16857796</v>
+        <v>15941715</v>
       </c>
       <c r="D191" t="n">
-        <v>4565</v>
+        <v>4536</v>
       </c>
       <c r="E191" t="n">
-        <v>3692.835925520263</v>
+        <v>3514.487433862434</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3767,13 +3767,13 @@
         <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v>3774295</v>
+        <v>3386719</v>
       </c>
       <c r="D192" t="n">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="E192" t="n">
-        <v>9435.737499999999</v>
+        <v>9460.108938547486</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3784,13 +3784,13 @@
         <v>17</v>
       </c>
       <c r="C193" t="n">
-        <v>13875429</v>
+        <v>12800729</v>
       </c>
       <c r="D193" t="n">
-        <v>3763</v>
+        <v>3713</v>
       </c>
       <c r="E193" t="n">
-        <v>3687.331650279033</v>
+        <v>3447.543495825478</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3869,13 +3869,13 @@
         <v>22</v>
       </c>
       <c r="C198" t="n">
-        <v>15157742</v>
+        <v>14979886</v>
       </c>
       <c r="D198" t="n">
-        <v>2987</v>
+        <v>2955</v>
       </c>
       <c r="E198" t="n">
-        <v>5074.570472045531</v>
+        <v>5069.335363790186</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="C201" t="n">
-        <v>4352648</v>
+        <v>4186112</v>
       </c>
       <c r="D201" t="n">
-        <v>1088</v>
+        <v>1061</v>
       </c>
       <c r="E201" t="n">
-        <v>4000.595588235294</v>
+        <v>3945.440150801131</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3971,13 +3971,13 @@
         <v>28</v>
       </c>
       <c r="C204" t="n">
-        <v>12570268</v>
+        <v>12433468</v>
       </c>
       <c r="D204" t="n">
-        <v>2998</v>
+        <v>2960</v>
       </c>
       <c r="E204" t="n">
-        <v>4192.884589726485</v>
+        <v>4200.495945945946</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3988,13 +3988,13 @@
         <v>29</v>
       </c>
       <c r="C205" t="n">
-        <v>3021413</v>
+        <v>2652042</v>
       </c>
       <c r="D205" t="n">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="E205" t="n">
-        <v>5855.451550387597</v>
+        <v>5536.622129436326</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4005,13 +4005,13 @@
         <v>30</v>
       </c>
       <c r="C206" t="n">
-        <v>3517672</v>
+        <v>2909509</v>
       </c>
       <c r="D206" t="n">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="E206" t="n">
-        <v>11571.28947368421</v>
+        <v>12595.27705627706</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4022,13 +4022,13 @@
         <v>31</v>
       </c>
       <c r="C207" t="n">
-        <v>1425153</v>
+        <v>1260729</v>
       </c>
       <c r="D207" t="n">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E207" t="n">
-        <v>6507.54794520548</v>
+        <v>6814.751351351351</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4073,13 +4073,13 @@
         <v>34</v>
       </c>
       <c r="C210" t="n">
-        <v>8014867</v>
+        <v>7720639</v>
       </c>
       <c r="D210" t="n">
-        <v>1340</v>
+        <v>1307</v>
       </c>
       <c r="E210" t="n">
-        <v>5981.244029850746</v>
+        <v>5907.145371078806</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4158,13 +4158,13 @@
         <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>10399418</v>
+        <v>10213914</v>
       </c>
       <c r="D215" t="n">
-        <v>2677</v>
+        <v>2646</v>
       </c>
       <c r="E215" t="n">
-        <v>3884.728427344042</v>
+        <v>3860.133786848073</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4192,13 +4192,13 @@
         <v>11</v>
       </c>
       <c r="C217" t="n">
-        <v>13261683</v>
+        <v>12574564</v>
       </c>
       <c r="D217" t="n">
-        <v>2359</v>
+        <v>2318</v>
       </c>
       <c r="E217" t="n">
-        <v>5621.739296311996</v>
+        <v>5424.747195858498</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4209,13 +4209,13 @@
         <v>12</v>
       </c>
       <c r="C218" t="n">
-        <v>4789623</v>
+        <v>4490337</v>
       </c>
       <c r="D218" t="n">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E218" t="n">
-        <v>15500.39805825243</v>
+        <v>15430.71134020619</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4260,13 +4260,13 @@
         <v>15</v>
       </c>
       <c r="C221" t="n">
-        <v>16421524</v>
+        <v>15520059</v>
       </c>
       <c r="D221" t="n">
-        <v>4455</v>
+        <v>4426</v>
       </c>
       <c r="E221" t="n">
-        <v>3686.088439955106</v>
+        <v>3506.565521915951</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4277,13 +4277,13 @@
         <v>16</v>
       </c>
       <c r="C222" t="n">
-        <v>3765815</v>
+        <v>3378939</v>
       </c>
       <c r="D222" t="n">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="E222" t="n">
-        <v>8902.635933806147</v>
+        <v>8845.390052356021</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4294,13 +4294,13 @@
         <v>17</v>
       </c>
       <c r="C223" t="n">
-        <v>13481865</v>
+        <v>12526463</v>
       </c>
       <c r="D223" t="n">
-        <v>3765</v>
+        <v>3716</v>
       </c>
       <c r="E223" t="n">
-        <v>3580.840637450199</v>
+        <v>3370.953444564047</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4379,13 +4379,13 @@
         <v>22</v>
       </c>
       <c r="C228" t="n">
-        <v>14747865</v>
+        <v>14572985</v>
       </c>
       <c r="D228" t="n">
-        <v>3002</v>
+        <v>2970</v>
       </c>
       <c r="E228" t="n">
-        <v>4912.679880079947</v>
+        <v>4906.728956228956</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4430,13 +4430,13 @@
         <v>25</v>
       </c>
       <c r="C231" t="n">
-        <v>4747888</v>
+        <v>4582162</v>
       </c>
       <c r="D231" t="n">
-        <v>1222</v>
+        <v>1195</v>
       </c>
       <c r="E231" t="n">
-        <v>3885.342062193126</v>
+        <v>3834.445188284519</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4481,13 +4481,13 @@
         <v>28</v>
       </c>
       <c r="C234" t="n">
-        <v>12152569</v>
+        <v>12014933</v>
       </c>
       <c r="D234" t="n">
-        <v>3028</v>
+        <v>2990</v>
       </c>
       <c r="E234" t="n">
-        <v>4013.397952443857</v>
+        <v>4018.372240802676</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4498,13 +4498,13 @@
         <v>29</v>
       </c>
       <c r="C235" t="n">
-        <v>3062551</v>
+        <v>2733547</v>
       </c>
       <c r="D235" t="n">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="E235" t="n">
-        <v>5935.176356589147</v>
+        <v>5718.717573221757</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4515,13 +4515,13 @@
         <v>30</v>
       </c>
       <c r="C236" t="n">
-        <v>3593690</v>
+        <v>2990618</v>
       </c>
       <c r="D236" t="n">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="E236" t="n">
-        <v>11195.29595015576</v>
+        <v>12010.5140562249</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4532,13 +4532,13 @@
         <v>31</v>
       </c>
       <c r="C237" t="n">
-        <v>1462470</v>
+        <v>1295088</v>
       </c>
       <c r="D237" t="n">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="E237" t="n">
-        <v>6647.590909090909</v>
+        <v>6962.83870967742</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4583,13 +4583,13 @@
         <v>34</v>
       </c>
       <c r="C240" t="n">
-        <v>7996371</v>
+        <v>7701931</v>
       </c>
       <c r="D240" t="n">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="E240" t="n">
-        <v>5824.013838310269</v>
+        <v>5752.002240477968</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4668,13 +4668,13 @@
         <v>9</v>
       </c>
       <c r="C245" t="n">
-        <v>10111155.34</v>
+        <v>9995999.289999995</v>
       </c>
       <c r="D245" t="n">
-        <v>2676</v>
+        <v>2661</v>
       </c>
       <c r="E245" t="n">
-        <v>3778.458647234677</v>
+        <v>3756.482258549416</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4702,13 +4702,13 @@
         <v>11</v>
       </c>
       <c r="C247" t="n">
-        <v>12854731.87</v>
+        <v>12699990.9</v>
       </c>
       <c r="D247" t="n">
-        <v>2359</v>
+        <v>2342</v>
       </c>
       <c r="E247" t="n">
-        <v>5449.22927935566</v>
+        <v>5422.711742100769</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4719,13 +4719,13 @@
         <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>5200490.350000001</v>
+        <v>4900096.27</v>
       </c>
       <c r="D248" t="n">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E248" t="n">
-        <v>15617.08813813814</v>
+        <v>15555.86117460318</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4770,13 +4770,13 @@
         <v>15</v>
       </c>
       <c r="C251" t="n">
-        <v>16461765.17</v>
+        <v>15627848.27</v>
       </c>
       <c r="D251" t="n">
-        <v>4503</v>
+        <v>4473</v>
       </c>
       <c r="E251" t="n">
-        <v>3655.732882522763</v>
+        <v>3493.818079588643</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4787,13 +4787,13 @@
         <v>16</v>
       </c>
       <c r="C252" t="n">
-        <v>3551235.19</v>
+        <v>3330994.13</v>
       </c>
       <c r="D252" t="n">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="E252" t="n">
-        <v>8355.847505882353</v>
+        <v>8348.356215538846</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4804,13 +4804,13 @@
         <v>17</v>
       </c>
       <c r="C253" t="n">
-        <v>12736579.04</v>
+        <v>12489906.02000001</v>
       </c>
       <c r="D253" t="n">
-        <v>3742</v>
+        <v>3731</v>
       </c>
       <c r="E253" t="n">
-        <v>3403.682266167826</v>
+        <v>3347.602792816941</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4889,13 +4889,13 @@
         <v>22</v>
       </c>
       <c r="C258" t="n">
-        <v>14754488.32</v>
+        <v>14581445.44</v>
       </c>
       <c r="D258" t="n">
-        <v>3018</v>
+        <v>2986</v>
       </c>
       <c r="E258" t="n">
-        <v>4888.829794565939</v>
+        <v>4883.270408573343</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4940,13 +4940,13 @@
         <v>25</v>
       </c>
       <c r="C261" t="n">
-        <v>4649633.82</v>
+        <v>4493776.86</v>
       </c>
       <c r="D261" t="n">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="E261" t="n">
-        <v>3798.720441176471</v>
+        <v>3754.199548872181</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4991,13 +4991,13 @@
         <v>28</v>
       </c>
       <c r="C264" t="n">
-        <v>11952834.46</v>
+        <v>11912989.42</v>
       </c>
       <c r="D264" t="n">
-        <v>3010</v>
+        <v>2998</v>
       </c>
       <c r="E264" t="n">
-        <v>3971.041348837208</v>
+        <v>3973.645570380252</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5008,13 +5008,13 @@
         <v>29</v>
       </c>
       <c r="C265" t="n">
-        <v>3229209.290000001</v>
+        <v>3001090.25</v>
       </c>
       <c r="D265" t="n">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E265" t="n">
-        <v>5903.490475319928</v>
+        <v>5738.222275334609</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5025,13 +5025,13 @@
         <v>30</v>
       </c>
       <c r="C266" t="n">
-        <v>3882999.819999999</v>
+        <v>3268669.779999999</v>
       </c>
       <c r="D266" t="n">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="E266" t="n">
-        <v>11911.04239263804</v>
+        <v>12919.64339920948</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5042,13 +5042,13 @@
         <v>31</v>
       </c>
       <c r="C267" t="n">
-        <v>1380678.76</v>
+        <v>1293879.76</v>
       </c>
       <c r="D267" t="n">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E267" t="n">
-        <v>6163.744464285714</v>
+        <v>6190.812248803827</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5093,13 +5093,13 @@
         <v>34</v>
       </c>
       <c r="C270" t="n">
-        <v>8295297.630000002</v>
+        <v>8036056.590000002</v>
       </c>
       <c r="D270" t="n">
-        <v>1444</v>
+        <v>1417</v>
       </c>
       <c r="E270" t="n">
-        <v>5744.665948753463</v>
+        <v>5671.176139731829</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5178,13 +5178,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="n">
-        <v>9924207.409999996</v>
+        <v>9816661.459999997</v>
       </c>
       <c r="D275" t="n">
-        <v>2676</v>
+        <v>2661</v>
       </c>
       <c r="E275" t="n">
-        <v>3708.597686846038</v>
+        <v>3689.087358136038</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5212,13 +5212,13 @@
         <v>11</v>
       </c>
       <c r="C277" t="n">
-        <v>12592225.98</v>
+        <v>12450161.91</v>
       </c>
       <c r="D277" t="n">
-        <v>2362</v>
+        <v>2345</v>
       </c>
       <c r="E277" t="n">
-        <v>5331.171033022862</v>
+        <v>5309.23748827292</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5229,13 +5229,13 @@
         <v>12</v>
       </c>
       <c r="C278" t="n">
-        <v>5078073.94</v>
+        <v>4788032.86</v>
       </c>
       <c r="D278" t="n">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E278" t="n">
-        <v>15158.42967164179</v>
+        <v>15056.70710691824</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5280,13 +5280,13 @@
         <v>15</v>
       </c>
       <c r="C281" t="n">
-        <v>16402842.52</v>
+        <v>15560669.62</v>
       </c>
       <c r="D281" t="n">
-        <v>4559</v>
+        <v>4529</v>
       </c>
       <c r="E281" t="n">
-        <v>3597.903601667033</v>
+        <v>3435.784857584456</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5297,13 +5297,13 @@
         <v>16</v>
       </c>
       <c r="C282" t="n">
-        <v>3987371.459999999</v>
+        <v>3768466.54</v>
       </c>
       <c r="D282" t="n">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="E282" t="n">
-        <v>9338.106463700233</v>
+        <v>9397.672169576059</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5314,13 +5314,13 @@
         <v>17</v>
       </c>
       <c r="C283" t="n">
-        <v>12465592.59</v>
+        <v>12220289.62</v>
       </c>
       <c r="D283" t="n">
-        <v>3742</v>
+        <v>3731</v>
       </c>
       <c r="E283" t="n">
-        <v>3331.264722073756</v>
+        <v>3275.338949343338</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5399,13 +5399,13 @@
         <v>22</v>
       </c>
       <c r="C288" t="n">
-        <v>14797848.39</v>
+        <v>14632272.39</v>
       </c>
       <c r="D288" t="n">
-        <v>3073</v>
+        <v>3041</v>
       </c>
       <c r="E288" t="n">
-        <v>4815.44041327693</v>
+        <v>4811.664712265703</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5450,13 +5450,13 @@
         <v>25</v>
       </c>
       <c r="C291" t="n">
-        <v>4526357.779999999</v>
+        <v>4378129.669999999</v>
       </c>
       <c r="D291" t="n">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="E291" t="n">
-        <v>3698.004722222222</v>
+        <v>3657.585355054302</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5501,13 +5501,13 @@
         <v>28</v>
       </c>
       <c r="C294" t="n">
-        <v>11760412.22000001</v>
+        <v>11719585.22000001</v>
       </c>
       <c r="D294" t="n">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="E294" t="n">
-        <v>3829.505770107459</v>
+        <v>3831.181830663618</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5518,13 +5518,13 @@
         <v>29</v>
       </c>
       <c r="C295" t="n">
-        <v>3289991.09</v>
+        <v>3050158.13</v>
       </c>
       <c r="D295" t="n">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="E295" t="n">
-        <v>5833.317535460993</v>
+        <v>5648.440981481482</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5535,13 +5535,13 @@
         <v>30</v>
       </c>
       <c r="C296" t="n">
-        <v>3845776.13</v>
+        <v>3273226.91</v>
       </c>
       <c r="D296" t="n">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="E296" t="n">
-        <v>11833.15732307692</v>
+        <v>12988.99567460317</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5552,13 +5552,13 @@
         <v>31</v>
       </c>
       <c r="C297" t="n">
-        <v>1430740.04</v>
+        <v>1364023.04</v>
       </c>
       <c r="D297" t="n">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E297" t="n">
-        <v>5863.688688524591</v>
+        <v>5956.43248908297</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5603,13 +5603,13 @@
         <v>34</v>
       </c>
       <c r="C300" t="n">
-        <v>8202195.379999998</v>
+        <v>7894765.279999998</v>
       </c>
       <c r="D300" t="n">
-        <v>1486</v>
+        <v>1455</v>
       </c>
       <c r="E300" t="n">
-        <v>5519.646958277253</v>
+        <v>5425.955518900342</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5688,13 +5688,13 @@
         <v>9</v>
       </c>
       <c r="C305" t="n">
-        <v>9727567.030000001</v>
+        <v>9627241.030000001</v>
       </c>
       <c r="D305" t="n">
-        <v>2670</v>
+        <v>2655</v>
       </c>
       <c r="E305" t="n">
-        <v>3643.283531835206</v>
+        <v>3626.079483992467</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5722,13 +5722,13 @@
         <v>11</v>
       </c>
       <c r="C307" t="n">
-        <v>11928377.07</v>
+        <v>11808672.11</v>
       </c>
       <c r="D307" t="n">
-        <v>2342</v>
+        <v>2326</v>
       </c>
       <c r="E307" t="n">
-        <v>5093.243838599489</v>
+        <v>5076.815180567499</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5739,13 +5739,13 @@
         <v>12</v>
       </c>
       <c r="C308" t="n">
-        <v>4894324.08</v>
+        <v>4619563.08</v>
       </c>
       <c r="D308" t="n">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E308" t="n">
-        <v>13943.94324786325</v>
+        <v>13872.5618018018</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5790,13 +5790,13 @@
         <v>15</v>
       </c>
       <c r="C311" t="n">
-        <v>15674700.79</v>
+        <v>14831331.79</v>
       </c>
       <c r="D311" t="n">
-        <v>4493</v>
+        <v>4463</v>
       </c>
       <c r="E311" t="n">
-        <v>3488.69369908747</v>
+        <v>3323.175395473897</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5807,13 +5807,13 @@
         <v>16</v>
       </c>
       <c r="C312" t="n">
-        <v>4012237.76</v>
+        <v>3796969.72</v>
       </c>
       <c r="D312" t="n">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="E312" t="n">
-        <v>9181.322105263158</v>
+        <v>9238.369148418491</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5824,13 +5824,13 @@
         <v>17</v>
       </c>
       <c r="C313" t="n">
-        <v>12018988.74000001</v>
+        <v>11787889.74000001</v>
       </c>
       <c r="D313" t="n">
-        <v>3740</v>
+        <v>3730</v>
       </c>
       <c r="E313" t="n">
-        <v>3213.633352941179</v>
+        <v>3160.292155495981</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5909,13 +5909,13 @@
         <v>22</v>
       </c>
       <c r="C318" t="n">
-        <v>14331272.4</v>
+        <v>14170761.36</v>
       </c>
       <c r="D318" t="n">
-        <v>3077</v>
+        <v>3045</v>
       </c>
       <c r="E318" t="n">
-        <v>4657.547091322715</v>
+        <v>4653.780413793103</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5960,13 +5960,13 @@
         <v>25</v>
       </c>
       <c r="C321" t="n">
-        <v>4363455.209999999</v>
+        <v>4223674.319999999</v>
       </c>
       <c r="D321" t="n">
-        <v>1223</v>
+        <v>1196</v>
       </c>
       <c r="E321" t="n">
-        <v>3567.82928045789</v>
+        <v>3531.500267558528</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6011,13 +6011,13 @@
         <v>28</v>
       </c>
       <c r="C324" t="n">
-        <v>11319729.57000001</v>
+        <v>11279924.61000001</v>
       </c>
       <c r="D324" t="n">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="E324" t="n">
-        <v>3686.007675024425</v>
+        <v>3687.454923177512</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6028,13 +6028,13 @@
         <v>29</v>
       </c>
       <c r="C325" t="n">
-        <v>3283786.350000001</v>
+        <v>3064521.390000001</v>
       </c>
       <c r="D325" t="n">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="E325" t="n">
-        <v>5491.281521739132</v>
+        <v>5338.887439024391</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6045,13 +6045,13 @@
         <v>30</v>
       </c>
       <c r="C326" t="n">
-        <v>3721151.52</v>
+        <v>3176315.29</v>
       </c>
       <c r="D326" t="n">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="E326" t="n">
-        <v>11449.69698461538</v>
+        <v>12604.42575396825</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6062,13 +6062,13 @@
         <v>31</v>
       </c>
       <c r="C327" t="n">
-        <v>1491358.12</v>
+        <v>1439603.06</v>
       </c>
       <c r="D327" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E327" t="n">
-        <v>5735.992769230768</v>
+        <v>5852.044959349593</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6113,13 +6113,13 @@
         <v>34</v>
       </c>
       <c r="C330" t="n">
-        <v>8019883.270000003</v>
+        <v>7733265.330000003</v>
       </c>
       <c r="D330" t="n">
-        <v>1517</v>
+        <v>1486</v>
       </c>
       <c r="E330" t="n">
-        <v>5286.673216875414</v>
+        <v>5204.081648721402</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6198,13 +6198,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="n">
-        <v>9609282.349999998</v>
+        <v>9507854.299999997</v>
       </c>
       <c r="D335" t="n">
-        <v>2669</v>
+        <v>2654</v>
       </c>
       <c r="E335" t="n">
-        <v>3600.330591982015</v>
+        <v>3582.462057272041</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6232,13 +6232,13 @@
         <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>11838395.66000001</v>
+        <v>11716194.7</v>
       </c>
       <c r="D337" t="n">
-        <v>2343</v>
+        <v>2327</v>
       </c>
       <c r="E337" t="n">
-        <v>5052.665667947079</v>
+        <v>5034.892436613668</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6249,13 +6249,13 @@
         <v>12</v>
       </c>
       <c r="C338" t="n">
-        <v>4698553.500000001</v>
+        <v>4410052.560000001</v>
       </c>
       <c r="D338" t="n">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E338" t="n">
-        <v>13310.34985835694</v>
+        <v>13164.336</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6300,13 +6300,13 @@
         <v>15</v>
       </c>
       <c r="C341" t="n">
-        <v>15831890.27000001</v>
+        <v>15067444.37000001</v>
       </c>
       <c r="D341" t="n">
-        <v>4552</v>
+        <v>4522</v>
       </c>
       <c r="E341" t="n">
-        <v>3478.007528558877</v>
+        <v>3332.031041574527</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6317,13 +6317,13 @@
         <v>16</v>
       </c>
       <c r="C342" t="n">
-        <v>4391320.32</v>
+        <v>4078609.4</v>
       </c>
       <c r="D342" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E342" t="n">
-        <v>8132.074666666667</v>
+        <v>8060.492885375495</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6334,13 +6334,13 @@
         <v>17</v>
       </c>
       <c r="C343" t="n">
-        <v>12245215.49</v>
+        <v>12049263.49</v>
       </c>
       <c r="D343" t="n">
-        <v>3810</v>
+        <v>3800</v>
       </c>
       <c r="E343" t="n">
-        <v>3213.967320209974</v>
+        <v>3170.858813157895</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6419,13 +6419,13 @@
         <v>22</v>
       </c>
       <c r="C348" t="n">
-        <v>13982119.47</v>
+        <v>13823102.51</v>
       </c>
       <c r="D348" t="n">
-        <v>3116</v>
+        <v>3084</v>
       </c>
       <c r="E348" t="n">
-        <v>4487.201370346598</v>
+        <v>4482.199257457846</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6470,13 +6470,13 @@
         <v>25</v>
       </c>
       <c r="C351" t="n">
-        <v>4375882.620000001</v>
+        <v>4232948.670000001</v>
       </c>
       <c r="D351" t="n">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="E351" t="n">
-        <v>3598.587680921054</v>
+        <v>3560.091396131204</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6521,13 +6521,13 @@
         <v>28</v>
       </c>
       <c r="C354" t="n">
-        <v>11373865.65</v>
+        <v>11335258.65</v>
       </c>
       <c r="D354" t="n">
-        <v>3072</v>
+        <v>3060</v>
       </c>
       <c r="E354" t="n">
-        <v>3702.430224609374</v>
+        <v>3704.332892156862</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6538,13 +6538,13 @@
         <v>29</v>
       </c>
       <c r="C355" t="n">
-        <v>3285046.89</v>
+        <v>3068275.89</v>
       </c>
       <c r="D355" t="n">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="E355" t="n">
-        <v>5521.087210084033</v>
+        <v>5382.940157894736</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6555,13 +6555,13 @@
         <v>30</v>
       </c>
       <c r="C356" t="n">
-        <v>3340380.01</v>
+        <v>2817535.03</v>
       </c>
       <c r="D356" t="n">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="E356" t="n">
-        <v>10373.85096273292</v>
+        <v>11315.40172690763</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6572,13 +6572,13 @@
         <v>31</v>
       </c>
       <c r="C357" t="n">
-        <v>1445180.02</v>
+        <v>1392596.02</v>
       </c>
       <c r="D357" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E357" t="n">
-        <v>5453.509509433962</v>
+        <v>5548.191314741036</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6623,13 +6623,13 @@
         <v>34</v>
       </c>
       <c r="C360" t="n">
-        <v>8115978.239999998</v>
+        <v>7799924.249999998</v>
       </c>
       <c r="D360" t="n">
-        <v>1531</v>
+        <v>1500</v>
       </c>
       <c r="E360" t="n">
-        <v>5301.096172436315</v>
+        <v>5199.949499999999</v>
       </c>
     </row>
     <row r="361" spans="1:5">
